--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2301152.819007583</v>
+        <v>2352365.437742927</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17298407.14104212</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5392227.883576531</v>
+        <v>5464055.253583111</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>240.1485718096586</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>370.4154205979063</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.5591556145158</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,7 +905,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>350.7377843580583</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>331.484581935008</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +990,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1063,13 +1063,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>34.06158462964276</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>243.8398845373353</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>322.9639268876599</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>212.2911951212354</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>30.11740084111452</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>193.8659438253736</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>30.11740084111452</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1765,10 +1765,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>217.2891245976625</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>151.2847580261687</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225737</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800047</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2378,7 +2378,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.8069000430761</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2482,13 +2482,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170516</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3080,7 +3080,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>81.61450848421616</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781979</v>
+        <v>114.9577730479998</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>111.5323997003464</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>293.3710601222967</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>54.18430635300722</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>144.2432333198505</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>28.8795364037203</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>74.08603691744844</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>763.0287521501519</v>
+        <v>503.8064494671689</v>
       </c>
       <c r="C2" t="n">
-        <v>728.9266833739794</v>
+        <v>469.7043806909963</v>
       </c>
       <c r="D2" t="n">
-        <v>300.3450091112477</v>
+        <v>437.8349999058449</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>408.1006591045441</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4361,19 +4361,19 @@
         <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>1208.676101675288</v>
+        <v>1353.494203032709</v>
       </c>
       <c r="X2" t="n">
-        <v>789.5336382545983</v>
+        <v>1338.392143652423</v>
       </c>
       <c r="Y2" t="n">
-        <v>785.2879185946557</v>
+        <v>930.1060199520767</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4486,49 +4486,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
         <v>33.94366860160834</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>904.4591712531709</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>466.3166984365942</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>434.4473176514428</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>404.712976850142</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717421</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717421</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717421</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717421</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720794</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>2159.002379407677</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1754.146924818711</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>1335.004461398021</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>926.7183376976747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539589</v>
+        <v>92.16803877326456</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993462</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>593.0357356940353</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>420.4740241772603</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>254.596031378783</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>84.83802762952021</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179223</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477219</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.080693055675</v>
       </c>
       <c r="U7" t="n">
-        <v>1024.341879988165</v>
+        <v>1816.64769230878</v>
       </c>
       <c r="V7" t="n">
-        <v>1024.341879988165</v>
+        <v>1529.69218417921</v>
       </c>
       <c r="W7" t="n">
-        <v>1024.341879988165</v>
+        <v>1257.665779765502</v>
       </c>
       <c r="X7" t="n">
-        <v>1024.341879988165</v>
+        <v>1012.274025098914</v>
       </c>
       <c r="Y7" t="n">
-        <v>1024.341879988165</v>
+        <v>784.8543544130225</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>1216.618961230546</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>788.0372869678147</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.558048676956</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.558048676956</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2234.742998128393</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1146.964903885608</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.897252701282</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.754779884704</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.844995059148</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.070250217444</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2028206266514</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8049892499153</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>96.67483469313152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3289.779009111528</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4118.088883944924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4664.587669903519</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656575</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4833.741734656575</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.320117645348</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.097814962364</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.480864896191</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.625410307224</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.482946886536</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.196823186189</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.2968328198015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>447.2968328198015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>447.2968328198015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>447.2968328198015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>447.2968328198015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.732995305013</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.171283788238</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D13" t="n">
-        <v>837.2932909897606</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5352872404978</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F13" t="n">
-        <v>490.828233202254</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2369582280817</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3347839184562</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.222856196918</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.093075893928</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.213629472383</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2112.389443790187</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>2112.389443790187</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.363039376479</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1594.971284709892</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.551614024</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.897252701282</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.754779884705</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.844995059149</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.070250217444</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2028206266514</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8049892499153</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.67483469313152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3289.779009111528</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4118.088883944924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4664.587669903519</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656575</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4833.741734656575</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.320117645349</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.097814962365</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.480864896192</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.625410307225</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.482946886536</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.196823186189</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.1708717700628</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6091602532878</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7311674548105</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>438.9731637055477</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>262.2661096673039</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>96.67483469313152</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>96.67483469313152</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2228561969181</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535476</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.334444595931</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.095275553247</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.215829131702</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.782828384807</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.827320255238</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.800915841529</v>
+        <v>1507.509340638875</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.409161174942</v>
+        <v>1262.117585972288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.98949048905</v>
+        <v>1034.697915286396</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.395033719319</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.252560902743</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.342776077187</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.568031235483</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.70060164469</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>388.3027702679539</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>99.17261571117012</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>99.17261571117012</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>534.427303164088</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.777595122266</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2434.488393443154</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2434.488393443154</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2434.488393443154</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3414.66806001346</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4242.977934846856</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4789.476720805451</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4958.630785558506</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4958.630785558506</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4805.817898663387</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.595595980403</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.97864591423</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3779.123191325263</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.980727904574</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.694604204227</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>605.344360702463</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.8878995391052</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.7976106856585</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.6771960126122</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>226.2933576287738</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.9082678949576</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>99.17261571117012</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>125.2362888716277</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.79461383784</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.79461383784</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>449.79461383784</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>449.79461383784</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>449.79461383784</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>449.79461383784</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1645.239599095639</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1762.412377189979</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.956939638362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.778295968964</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1392.441748968932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1193.324231030931</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1008.001476764125</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>853.1340410030053</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.6482617822261</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.6686527881013</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>777.1069412713263</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>611.228948472849</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>441.4709447235863</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>264.7638906853425</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>99.17261571117012</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>99.17261571117012</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>99.17261571117012</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.75230087586</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>460.5107554469956</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.7206372149566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1338.20450439587</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1780.463307553514</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2200.132556779296</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.639450749637</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.593056571285</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.71361014974</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2173.280609402846</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1886.325101273276</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1614.298696859568</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.90694219298</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.487271507089</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5908,13 +5908,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6014,25 +6014,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883922</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716172</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731398</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238771</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856333</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6178,16 +6178,16 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
         <v>1003.573296407379</v>
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
         <v>444.5591692831957</v>
@@ -6418,7 +6418,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,22 +6710,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
         <v>4809.322912595856</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
         <v>614.3171730324584</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.0529136098389</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C37" t="n">
-        <v>783.9079914659238</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>618.4467880403065</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>449.1055736639037</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>272.8153089985199</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>190.3764115397157</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2701.059791783003</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2701.059791783003</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2455.597134734318</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U37" t="n">
-        <v>2177.580923360284</v>
+        <v>2143.709296755305</v>
       </c>
       <c r="V37" t="n">
-        <v>1891.042204603574</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W37" t="n">
-        <v>1619.432589562725</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X37" t="n">
-        <v>1374.457624268998</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y37" t="n">
-        <v>1147.454742955966</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.854933458241</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014525</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561829</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092984</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750518</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.798197351206</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247199</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817505</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650902</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609496</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897776</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617394</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477087</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.5453418998824</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>778.4004197559673</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>612.93921633035</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>443.5980019539472</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>267.3077372885634</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.133251687251</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517565</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2563.236244375628</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2317.773587326943</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2039.757375952909</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1753.218657196199</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W40" t="n">
-        <v>1481.609042155351</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.950052559041</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.947171246009</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2523.357152440201</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2085.631468996485</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1650.138473543789</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.780518074944</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>789.3298778570122</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>388.3488358531361</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H41" t="n">
-        <v>99.63547066921241</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>99.63547066921241</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>534.8901581221303</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1369.240450080308</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2444.300416333168</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2444.300416333168</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2457.631141345267</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3437.810807915574</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4266.12068274897</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4812.619468707564</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4981.77353346062</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4898.538449017317</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.888011263216</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.082497953093</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4057.882337259779</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3653.443672043672</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3357.109267879736</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2949.239933552249</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>605.8072156605052</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>499.3507544971475</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>404.2604656437007</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.1400509706544</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>226.756212586816</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>141.3711228529999</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>99.63547066921241</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>125.69914382967</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>450.2574687958823</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1645.702454053682</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1762.875232148021</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1699.419794596404</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1569.241150927006</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1392.904603926974</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1193.787085988974</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1008.464331722168</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>853.5968959610476</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.1111167402684</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.0475608818439</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>775.9026387379288</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>610.4414353123115</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E43" t="n">
-        <v>441.1002209359087</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>264.8099562705249</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>99.63547066921241</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>99.63547066921241</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>99.63547066921241</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.6236510982423</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7906009337181</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>880.4089779660192</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1340.301340411272</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1782.968638833257</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.046383323379</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.961772558061</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2719.563042686733</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2719.563042686733</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2560.738463357589</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2315.275806308905</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2169.575570632288</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1883.036851875579</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1611.42723683473</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1366.452271541003</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1139.449390227971</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.268927880592</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.543244436875</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1647.05024898418</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1213.692293515335</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>786.2416532974028</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>385.2606112935264</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>96.54724610960294</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.8019335625208</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.152225520699</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.212191773559</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2472.373978117849</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2472.373978117849</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3452.553644688156</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4280.863519521552</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4827.362305480146</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4827.362305480146</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4798.1910565875</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4798.1910565875</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4539.385543277376</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4177.185382584063</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3772.746717367956</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.021043320126</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.15170899264</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.7189911008958</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.1722410840913</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.051826411045</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.6679880272066</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.2828982933905</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.6109192700605</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.1692442362728</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.614229494072</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.5086714014382</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.0228921806589</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1078.181047459757</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>906.0361253158422</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>740.5749218902249</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>665.7405411655293</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>489.4502765001454</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>324.2757908988331</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>184.7904059620676</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.5354265386328</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.7023763741086</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>877.3207534064097</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.213115851663</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.880414273648</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2547.873547998451</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2695.473786205355</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2536.649206876212</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2291.186549827527</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.170338453492</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2013.170338453492</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1741.560723412644</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1496.585758118916</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1269.582876805885</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.8058955861095</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664742004</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238348</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,19 +8617,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>131.8679565343714</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>857.009321974183</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,13 +8933,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>857.009321974183</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1076.475553859483</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10118,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>137.0929241373656</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373665</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>13.46537880010055</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>31.47655186292013</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.7491540145772</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>81.78272691405212</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>187.7491540145772</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>52.01701577190883</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>66.5817968295231</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>81.90823226108306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.2363335358519</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>128.4628789093294</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.0953302292553</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9928159404438</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>121.1673571850543</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>130.9928159404438</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>53.52319719514966</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>93.56176531519029</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>460717.9786956405</v>
+        <v>467059.1399072781</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>460717.9786956405</v>
+        <v>468200.8799302409</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>455528.4782760547</v>
+        <v>474974.1264524457</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>455528.4782760547</v>
+        <v>474974.1264524458</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>464223.5950680607</v>
+        <v>474974.1264524458</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>475131.2030371351</v>
+        <v>474974.1264524458</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>475131.2030371351</v>
+        <v>474974.1264524458</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>466436.0862451291</v>
+        <v>474974.1264524457</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>455685.5548607439</v>
+        <v>474974.1264524458</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="C2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="D2" t="n">
         <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>467391.2192030557</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="F2" t="n">
-        <v>467391.2192030557</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="G2" t="n">
-        <v>476312.7717125912</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="H2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="I2" t="n">
         <v>487343.2653270507</v>
@@ -26341,19 +26341,19 @@
         <v>487343.2653270507</v>
       </c>
       <c r="L2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="M2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="N2" t="n">
         <v>487343.2653270508</v>
       </c>
-      <c r="M2" t="n">
-        <v>487561.6517477952</v>
-      </c>
-      <c r="N2" t="n">
-        <v>487561.6517477952</v>
-      </c>
       <c r="O2" t="n">
-        <v>478640.0992382598</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="P2" t="n">
-        <v>467609.6056238002</v>
+        <v>487343.2653270508</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.7678950159</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998302</v>
       </c>
       <c r="E3" t="n">
-        <v>234126.826365935</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8557.553879113986</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10415.38475254591</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877231</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622516</v>
       </c>
       <c r="M3" t="n">
-        <v>195343.3712995836</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146735.1647947852</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39439.36031793091</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="F4" t="n">
-        <v>39439.36031793091</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="G4" t="n">
-        <v>40192.17789250767</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
+        <v>41122.95192991268</v>
+      </c>
+      <c r="I4" t="n">
         <v>41122.95192991271</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41122.95192991276</v>
       </c>
       <c r="J4" t="n">
         <v>41122.95192991271</v>
@@ -26445,19 +26445,19 @@
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
+        <v>41122.95192991271</v>
+      </c>
+      <c r="M4" t="n">
+        <v>41122.95192991272</v>
+      </c>
+      <c r="N4" t="n">
         <v>41122.95192991268</v>
       </c>
-      <c r="M4" t="n">
-        <v>41501.47029804092</v>
-      </c>
-      <c r="N4" t="n">
-        <v>41501.47029804092</v>
-      </c>
       <c r="O4" t="n">
-        <v>40748.65272346417</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="P4" t="n">
-        <v>39817.87868605911</v>
+        <v>41122.95192991272</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800253</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677994</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677994</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>75371.1879404893</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.9599574399</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>75757.64638373053</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73410.59571842733</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106755.6490458821</v>
+        <v>106755.6490458822</v>
       </c>
       <c r="C6" t="n">
-        <v>248946.949705592</v>
+        <v>210657.1244008241</v>
       </c>
       <c r="D6" t="n">
-        <v>248946.9497055921</v>
+        <v>270812.4035479825</v>
       </c>
       <c r="E6" t="n">
-        <v>120352.1581524098</v>
+        <v>186123.741230913</v>
       </c>
       <c r="F6" t="n">
-        <v>354478.9845183449</v>
+        <v>368478.8504519628</v>
       </c>
       <c r="G6" t="n">
-        <v>352191.8520004803</v>
+        <v>368478.8504519628</v>
       </c>
       <c r="H6" t="n">
-        <v>358086.6900387995</v>
+        <v>368478.8504519628</v>
       </c>
       <c r="I6" t="n">
-        <v>368502.0747913455</v>
+        <v>368478.8504519628</v>
       </c>
       <c r="J6" t="n">
-        <v>257487.6094463552</v>
+        <v>257464.3851069726</v>
       </c>
       <c r="K6" t="n">
-        <v>368502.0747913455</v>
+        <v>315432.9958131905</v>
       </c>
       <c r="L6" t="n">
-        <v>368502.0747913456</v>
+        <v>359086.5487253403</v>
       </c>
       <c r="M6" t="n">
-        <v>173060.8501927308</v>
+        <v>216278.6795139751</v>
       </c>
       <c r="N6" t="n">
-        <v>368404.2214923144</v>
+        <v>368478.8504519629</v>
       </c>
       <c r="O6" t="n">
-        <v>362133.8001310651</v>
+        <v>368478.8504519628</v>
       </c>
       <c r="P6" t="n">
-        <v>354381.1312193138</v>
+        <v>368478.8504519629</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684627</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1239.657696389627</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1245.443383365155</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1206.840576370037</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="E4" t="n">
-        <v>784.1395761440394</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.22226272548292</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.60280699511841</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="M4" t="n">
-        <v>782.544718849932</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="M4" t="n">
-        <v>784.1395761440394</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.22226272548292</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>38.60280699511841</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>189.2884255836292</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>53.17333469697797</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.58631836451698</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,7 +27625,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>72.850970936826</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.71868052833509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>140.8783988682186</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>31.8087862020904</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E8" t="n">
-        <v>106.4730705056278</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27904,10 +27904,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>44.33888453491784</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28062,19 +28062,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313976</v>
+        <v>-5.674143175943373e-13</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.8058955861095</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664742004</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35097,22 +35097,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238348</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35337,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>131.8679565343714</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,10 +35419,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>857.009321974183</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35647,19 +35647,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>857.009321974183</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1076.475553859483</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697531</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>137.0929241373656</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373665</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821197</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>13.46537880010055</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821204</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>31.47655186292013</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821203</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
